--- a/data/spx_eri.xlsx
+++ b/data/spx_eri.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1ffc3985930111aa/Desktop/DSI/Original_Materials/my_materials/captsone/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Client\C$\Users\cheon\OneDrive\Desktop\GitHub\SIREN_predicting_pullbacks\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_3919465B70658FD42E092444AF8C60DD79138967" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11505" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11505" activeTab="7"/>
   </bookViews>
   <sheets>
-    <sheet name="2019-21" sheetId="3" r:id="rId1"/>
-    <sheet name="2016-18" sheetId="5" r:id="rId2"/>
-    <sheet name="2013-15" sheetId="6" r:id="rId3"/>
-    <sheet name="2010-12" sheetId="7" r:id="rId4"/>
-    <sheet name="2007-09" sheetId="8" r:id="rId5"/>
-    <sheet name="2004-06" sheetId="9" r:id="rId6"/>
-    <sheet name="Combined" sheetId="10" r:id="rId7"/>
-    <sheet name="Test" sheetId="12" r:id="rId8"/>
+    <sheet name="2022-" sheetId="13" r:id="rId1"/>
+    <sheet name="2019-21" sheetId="3" r:id="rId2"/>
+    <sheet name="2016-18" sheetId="5" r:id="rId3"/>
+    <sheet name="2013-15" sheetId="6" r:id="rId4"/>
+    <sheet name="2010-12" sheetId="7" r:id="rId5"/>
+    <sheet name="2007-09" sheetId="8" r:id="rId6"/>
+    <sheet name="2004-06" sheetId="9" r:id="rId7"/>
+    <sheet name="Combined" sheetId="10" r:id="rId8"/>
+    <sheet name="Test" sheetId="12" r:id="rId9"/>
   </sheets>
   <calcPr calcId="152511" calcMode="manual" calcCompleted="0" calcOnSave="0"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="17">
   <si>
     <t>IdentityGroup</t>
   </si>
@@ -93,11 +93,16 @@
   <si>
     <t>3ma MA</t>
   </si>
+  <si>
+    <t>get(rolling(sum(group(contributor_revisions(is_eps(adj=Y, fpo='1', fpt=A), NUMUP, '4W'))),iterationdates=range(2021-12-31, 2022-02-28, frq=w)) as #Upgrades, rolling(sum(group(contributor_revisions(is_eps(adj=Y, fpo='1', fpt=A), NUMDN, '4W'))),iterationdates=range(2021-12-31, 2022-02-28, frq=w)) as #Downgrades) 
+for(members('spx index'))
+with (mode=cached)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -154,7 +159,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -5390,7 +5395,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-E463-41E0-A921-3C67C8BC086B}"/>
             </c:ext>
@@ -10577,7 +10582,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-E463-41E0-A921-3C67C8BC086B}"/>
             </c:ext>
@@ -10592,11 +10597,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1868350320"/>
-        <c:axId val="1868362288"/>
+        <c:axId val="224517456"/>
+        <c:axId val="224518000"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="1868350320"/>
+        <c:axId val="224517456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10639,7 +10644,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1868362288"/>
+        <c:crossAx val="224518000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -10648,7 +10653,7 @@
         <c:majorTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="1868362288"/>
+        <c:axId val="224518000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10685,7 +10690,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1868350320"/>
+        <c:crossAx val="224517456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11341,7 +11346,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11626,11 +11631,609 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E162"/>
   <sheetViews>
-    <sheetView topLeftCell="A135" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:C162"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>44561</v>
+      </c>
+      <c r="B5">
+        <v>857</v>
+      </c>
+      <c r="C5">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>44568</v>
+      </c>
+      <c r="B6">
+        <v>1087</v>
+      </c>
+      <c r="C6">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>44575</v>
+      </c>
+      <c r="B7">
+        <v>1316</v>
+      </c>
+      <c r="C7">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>44582</v>
+      </c>
+      <c r="B8">
+        <v>1767</v>
+      </c>
+      <c r="C8">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>44589</v>
+      </c>
+      <c r="B9">
+        <v>2865</v>
+      </c>
+      <c r="C9">
+        <v>2422</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>44596</v>
+      </c>
+      <c r="B10">
+        <v>3439</v>
+      </c>
+      <c r="C10">
+        <v>2933</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>44603</v>
+      </c>
+      <c r="B11">
+        <v>3543</v>
+      </c>
+      <c r="C11">
+        <v>3203</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>44610</v>
+      </c>
+      <c r="B12">
+        <v>3644</v>
+      </c>
+      <c r="C12">
+        <v>3115</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>44617</v>
+      </c>
+      <c r="B13">
+        <v>3035</v>
+      </c>
+      <c r="C13">
+        <v>2518</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1"/>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1"/>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1"/>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="1"/>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="1"/>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="1"/>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="1"/>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="1"/>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="1"/>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="1"/>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="1"/>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="1"/>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="1"/>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="1"/>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="1"/>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="1"/>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="1"/>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="1"/>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="1"/>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="1"/>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="1"/>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="1"/>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="1"/>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" s="1"/>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" s="1"/>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" s="1"/>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" s="1"/>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" s="1"/>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" s="1"/>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" s="1"/>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" s="1"/>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="1"/>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" s="1"/>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" s="1"/>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" s="1"/>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" s="1"/>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" s="1"/>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" s="1"/>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" s="1"/>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" s="1"/>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" s="1"/>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" s="1"/>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" s="1"/>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" s="1"/>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" s="1"/>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" s="1"/>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" s="1"/>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" s="1"/>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" s="1"/>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" s="1"/>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" s="1"/>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" s="1"/>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" s="1"/>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" s="1"/>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" s="1"/>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" s="1"/>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" s="1"/>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" s="1"/>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" s="1"/>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" s="1"/>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" s="1"/>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" s="1"/>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" s="1"/>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" s="1"/>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" s="1"/>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" s="1"/>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" s="1"/>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" s="1"/>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" s="1"/>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" s="1"/>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" s="1"/>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" s="1"/>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" s="1"/>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" s="1"/>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" s="1"/>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109" s="1"/>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110" s="1"/>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111" s="1"/>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112" s="1"/>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" s="1"/>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" s="1"/>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" s="1"/>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116" s="1"/>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117" s="1"/>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118" s="1"/>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119" s="1"/>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120" s="1"/>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121" s="1"/>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122" s="1"/>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123" s="1"/>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124" s="1"/>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125" s="1"/>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126" s="1"/>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127" s="1"/>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A128" s="1"/>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129" s="1"/>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130" s="1"/>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131" s="1"/>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132" s="1"/>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133" s="1"/>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134" s="1"/>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135" s="1"/>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A136" s="1"/>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A137" s="1"/>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A138" s="1"/>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A139" s="1"/>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A140" s="1"/>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141" s="1"/>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A142" s="1"/>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A143" s="1"/>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A144" s="1"/>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145" s="1"/>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146" s="1"/>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A147" s="1"/>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A148" s="1"/>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A149" s="1"/>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A150" s="1"/>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A151" s="1"/>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A152" s="1"/>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A153" s="1"/>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A154" s="1"/>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A155" s="1"/>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A156" s="1"/>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A157" s="1"/>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A158" s="1"/>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A159" s="1"/>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A160" s="1"/>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A161" s="1"/>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A162" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A3:E3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E162"/>
+  <sheetViews>
+    <sheetView topLeftCell="A138" workbookViewId="0">
+      <selection activeCell="C160" sqref="C160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13416,12 +14019,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E162"/>
   <sheetViews>
-    <sheetView topLeftCell="A135" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:C162"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15207,8 +15810,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E161"/>
   <sheetViews>
     <sheetView topLeftCell="A134" workbookViewId="0">
@@ -16987,8 +17590,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E162"/>
   <sheetViews>
     <sheetView topLeftCell="A135" workbookViewId="0">
@@ -18779,8 +19382,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E213"/>
   <sheetViews>
     <sheetView topLeftCell="A134" workbookViewId="0">
@@ -20715,8 +21318,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E213"/>
   <sheetViews>
     <sheetView topLeftCell="A56" workbookViewId="0">
@@ -22027,12 +22630,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:C863"/>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C871"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A804" workbookViewId="0">
+      <selection activeCell="A864" sqref="A864"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31535,13 +32138,101 @@
         <v>614</v>
       </c>
     </row>
+    <row r="864" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A864" s="1">
+        <v>44568</v>
+      </c>
+      <c r="B864">
+        <v>1087</v>
+      </c>
+      <c r="C864">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="865" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A865" s="1">
+        <v>44575</v>
+      </c>
+      <c r="B865">
+        <v>1316</v>
+      </c>
+      <c r="C865">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="866" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A866" s="1">
+        <v>44582</v>
+      </c>
+      <c r="B866">
+        <v>1767</v>
+      </c>
+      <c r="C866">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="867" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A867" s="1">
+        <v>44589</v>
+      </c>
+      <c r="B867">
+        <v>2865</v>
+      </c>
+      <c r="C867">
+        <v>2422</v>
+      </c>
+    </row>
+    <row r="868" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A868" s="1">
+        <v>44596</v>
+      </c>
+      <c r="B868">
+        <v>3439</v>
+      </c>
+      <c r="C868">
+        <v>2933</v>
+      </c>
+    </row>
+    <row r="869" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A869" s="1">
+        <v>44603</v>
+      </c>
+      <c r="B869">
+        <v>3543</v>
+      </c>
+      <c r="C869">
+        <v>3203</v>
+      </c>
+    </row>
+    <row r="870" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A870" s="1">
+        <v>44610</v>
+      </c>
+      <c r="B870">
+        <v>3644</v>
+      </c>
+      <c r="C870">
+        <v>3115</v>
+      </c>
+    </row>
+    <row r="871" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A871" s="1">
+        <v>44617</v>
+      </c>
+      <c r="B871">
+        <v>3035</v>
+      </c>
+      <c r="C871">
+        <v>2518</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E863"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/spx_eri.xlsx
+++ b/data/spx_eri.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="17">
   <si>
     <t>IdentityGroup</t>
   </si>
@@ -94,7 +94,7 @@
     <t>3ma MA</t>
   </si>
   <si>
-    <t>get(rolling(sum(group(contributor_revisions(is_eps(adj=Y, fpo='1', fpt=A), NUMUP, '4W'))),iterationdates=range(2021-12-31, 2022-02-28, frq=w)) as #Upgrades, rolling(sum(group(contributor_revisions(is_eps(adj=Y, fpo='1', fpt=A), NUMDN, '4W'))),iterationdates=range(2021-12-31, 2022-02-28, frq=w)) as #Downgrades) 
+    <t>get(rolling(sum(group(contributor_revisions(is_eps(adj=Y, fpo='1', fpt=A), NUMUP, '4W'))),iterationdates=range(2021-12-31, 2022-03-31, frq=w)) as #Upgrades, rolling(sum(group(contributor_revisions(is_eps(adj=Y, fpo='1', fpt=A), NUMDN, '4W'))),iterationdates=range(2021-12-31, 2022-03-31, frq=w)) as #Downgrades) 
 for(members('spx index'))
 with (mode=cached)</t>
   </si>
@@ -132,7 +132,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -140,6 +140,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -10597,11 +10600,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="224517456"/>
-        <c:axId val="224518000"/>
+        <c:axId val="-142835360"/>
+        <c:axId val="-142838624"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="224517456"/>
+        <c:axId val="-142835360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10644,7 +10647,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="224518000"/>
+        <c:crossAx val="-142838624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -10653,7 +10656,7 @@
         <c:majorTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="224518000"/>
+        <c:axId val="-142838624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10690,7 +10693,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="224517456"/>
+        <c:crossAx val="-142835360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11346,7 +11349,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11635,7 +11638,7 @@
   <dimension ref="A1:E162"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:C13"/>
+      <selection activeCell="A14" sqref="A14:C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11654,13 +11657,17 @@
       <c r="E1" s="3"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
+      <c r="B3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -11678,10 +11685,10 @@
         <v>44561</v>
       </c>
       <c r="B5">
-        <v>857</v>
+        <v>849</v>
       </c>
       <c r="C5">
-        <v>614</v>
+        <v>609</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -11689,10 +11696,10 @@
         <v>44568</v>
       </c>
       <c r="B6">
-        <v>1087</v>
+        <v>1080</v>
       </c>
       <c r="C6">
-        <v>846</v>
+        <v>843</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -11700,10 +11707,10 @@
         <v>44575</v>
       </c>
       <c r="B7">
-        <v>1316</v>
+        <v>1310</v>
       </c>
       <c r="C7">
-        <v>1054</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -11711,10 +11718,10 @@
         <v>44582</v>
       </c>
       <c r="B8">
-        <v>1767</v>
+        <v>1762</v>
       </c>
       <c r="C8">
-        <v>1462</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -11722,10 +11729,10 @@
         <v>44589</v>
       </c>
       <c r="B9">
-        <v>2865</v>
+        <v>2858</v>
       </c>
       <c r="C9">
-        <v>2422</v>
+        <v>2421</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -11733,10 +11740,10 @@
         <v>44596</v>
       </c>
       <c r="B10">
-        <v>3439</v>
+        <v>3422</v>
       </c>
       <c r="C10">
-        <v>2933</v>
+        <v>2925</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -11744,10 +11751,10 @@
         <v>44603</v>
       </c>
       <c r="B11">
-        <v>3543</v>
+        <v>3516</v>
       </c>
       <c r="C11">
-        <v>3203</v>
+        <v>3175</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -11755,10 +11762,10 @@
         <v>44610</v>
       </c>
       <c r="B12">
-        <v>3644</v>
+        <v>3598</v>
       </c>
       <c r="C12">
-        <v>3115</v>
+        <v>3073</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -11766,67 +11773,99 @@
         <v>44617</v>
       </c>
       <c r="B13">
-        <v>3035</v>
+        <v>2999</v>
       </c>
       <c r="C13">
-        <v>2518</v>
+        <v>2474</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
+      <c r="A14" s="1">
+        <v>44624</v>
+      </c>
+      <c r="B14">
+        <v>2360</v>
+      </c>
+      <c r="C14">
+        <v>2044</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
+      <c r="A15" s="1">
+        <v>44631</v>
+      </c>
+      <c r="B15">
+        <v>1917</v>
+      </c>
+      <c r="C15">
+        <v>1631</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>44638</v>
+      </c>
+      <c r="B16">
+        <v>1536</v>
+      </c>
+      <c r="C16">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>44645</v>
+      </c>
+      <c r="B17">
+        <v>1340</v>
+      </c>
+      <c r="C17">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
@@ -12220,9 +12259,8 @@
       <c r="A162" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A3:E3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12232,8 +12270,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E162"/>
   <sheetViews>
-    <sheetView topLeftCell="A138" workbookViewId="0">
-      <selection activeCell="C160" sqref="C160"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14024,7 +14062,7 @@
   <dimension ref="A1:E162"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E1"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22632,10 +22670,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C871"/>
+  <dimension ref="A1:C875"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A804" workbookViewId="0">
-      <selection activeCell="A864" sqref="A864"/>
+    <sheetView tabSelected="1" topLeftCell="A846" workbookViewId="0">
+      <selection activeCell="B872" sqref="B872"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32224,6 +32262,50 @@
       </c>
       <c r="C871">
         <v>2518</v>
+      </c>
+    </row>
+    <row r="872" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A872" s="1">
+        <v>44624</v>
+      </c>
+      <c r="B872">
+        <v>2360</v>
+      </c>
+      <c r="C872">
+        <v>2044</v>
+      </c>
+    </row>
+    <row r="873" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A873" s="1">
+        <v>44631</v>
+      </c>
+      <c r="B873">
+        <v>1917</v>
+      </c>
+      <c r="C873">
+        <v>1631</v>
+      </c>
+    </row>
+    <row r="874" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A874" s="1">
+        <v>44638</v>
+      </c>
+      <c r="B874">
+        <v>1536</v>
+      </c>
+      <c r="C874">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="875" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A875" s="1">
+        <v>44645</v>
+      </c>
+      <c r="B875">
+        <v>1340</v>
+      </c>
+      <c r="C875">
+        <v>1215</v>
       </c>
     </row>
   </sheetData>
